--- a/REGULAR/ANGCAYA, JOHN.xlsx
+++ b/REGULAR/ANGCAYA, JOHN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\ACCOUNTING\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EFBD3D1-8552-4A72-BBFA-47FFD126DA3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="129">
   <si>
     <t>PERIOD</t>
   </si>
@@ -427,7 +426,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -861,7 +860,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.000"/>
@@ -936,7 +934,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.000"/>
@@ -1004,7 +1001,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1246,7 +1242,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1294,7 +1289,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1337,7 +1332,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1401,7 +1396,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1461,7 +1456,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1527,7 +1522,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1590,7 +1585,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1688,7 +1683,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1747,7 +1742,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1812,7 +1807,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1855,7 +1850,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1930,7 +1925,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2116,7 +2111,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2182,7 +2177,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2240,7 +2235,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2306,7 +2301,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2362,7 +2357,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2437,7 +2432,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2480,7 +2475,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2546,7 +2541,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2602,7 +2597,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2700,7 +2695,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2763,7 +2758,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2829,25 +2824,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K214" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K214" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{23618FA7-8FE1-47F3-A791-7E4F2612427B}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{BA6D2C36-5CF4-40D7-AFDD-218AEBB26721}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{44B79BA7-06A4-4888-BFE5-96396FB13C9E}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1A20B288-1D72-4858-B3C2-871EB9CF011E}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{16E84B2D-53AC-4AEA-B1BC-1BC1E2E9B51B}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{A10DEDBF-F571-4518-A832-0B75654FC984}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{9E225A68-4AC2-420E-B4D1-1378612CB5CD}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{715FA023-3759-440B-8D8E-42D3E30EC36F}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{7E55BDC4-4FFC-4009-94E5-7F3F3565D56A}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2859,13 +2854,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CB44E398-F318-4683-B466-030B39F69924}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{CB44E398-F318-4683-B466-030B39F69924}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{1CAFD6A5-0771-4D4F-B29C-8C8A4BD59DAD}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{D6E424DD-7C72-4461-BBE2-CD59B37123B3}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{20858E5D-6D7D-4382-8DBC-1FD4091C418E}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{7FA7784E-0318-4F9C-9B40-57F4F3F3FD45}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2874,14 +2869,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CB4120CB-17DA-4A84-90C5-840D28205819}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{CB4120CB-17DA-4A84-90C5-840D28205819}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{6D76F81F-2FB2-4658-9985-FB0CE23F1771}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{40B8C089-638A-4D13-9FCC-740888AE7704}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{C3A40ACA-C07A-4798-82C2-714BDF47B4DB}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3185,7 +3180,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D098C40-D36A-4A12-B6E1-6D049DE49862}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3195,7 +3190,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3203,34 +3198,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FF8E2B-FA0C-43AD-94F6-3305AF75672F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K214"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A147" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A147" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="K155" sqref="K155"/>
+      <selection pane="bottomLeft" activeCell="B159" sqref="B159"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3251,7 +3246,7 @@
       <c r="J2" s="53"/>
       <c r="K2" s="54"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3271,7 +3266,7 @@
       <c r="J3" s="55"/>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3293,7 +3288,7 @@
       <c r="J4" s="57"/>
       <c r="K4" s="58"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3301,7 +3296,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3314,7 +3309,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="51" t="s">
@@ -3331,7 +3326,7 @@
       <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3366,7 +3361,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3375,7 +3370,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>127.95100000000001</v>
+        <v>129.20100000000002</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3385,12 +3380,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>127.8</v>
+        <v>128.05000000000001</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="40"/>
       <c r="B10" s="20"/>
       <c r="C10" s="13"/>
@@ -3410,7 +3405,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="48" t="s">
         <v>52</v>
       </c>
@@ -3428,7 +3423,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>42370</v>
       </c>
@@ -3452,7 +3447,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>42401</v>
       </c>
@@ -3472,7 +3467,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>42430</v>
       </c>
@@ -3498,7 +3493,7 @@
         <v>42439</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40"/>
       <c r="B15" s="20" t="s">
         <v>56</v>
@@ -3520,7 +3515,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40"/>
       <c r="B16" s="20" t="s">
         <v>57</v>
@@ -3540,7 +3535,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
       <c r="B17" s="20" t="s">
         <v>54</v>
@@ -3560,7 +3555,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>42461</v>
       </c>
@@ -3584,7 +3579,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>42491</v>
       </c>
@@ -3608,7 +3603,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>42522</v>
       </c>
@@ -3632,7 +3627,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>42552</v>
       </c>
@@ -3656,7 +3651,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>42583</v>
       </c>
@@ -3680,7 +3675,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
         <v>64</v>
@@ -3700,7 +3695,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>42614</v>
       </c>
@@ -3720,7 +3715,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>42644</v>
       </c>
@@ -3746,7 +3741,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
         <v>67</v>
@@ -3768,7 +3763,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40"/>
       <c r="B27" s="20" t="s">
         <v>69</v>
@@ -3790,7 +3785,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>51</v>
@@ -3812,7 +3807,7 @@
         <v>42669</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40"/>
       <c r="B29" s="20" t="s">
         <v>71</v>
@@ -3834,7 +3829,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>57</v>
@@ -3854,7 +3849,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>42675</v>
       </c>
@@ -3880,7 +3875,7 @@
         <v>42691</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
         <v>54</v>
@@ -3900,7 +3895,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="49"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>42705</v>
       </c>
@@ -3926,7 +3921,7 @@
         <v>42725</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>74</v>
@@ -3946,7 +3941,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="49"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="48" t="s">
         <v>53</v>
       </c>
@@ -3964,7 +3959,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>42736</v>
       </c>
@@ -3988,7 +3983,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="20" t="s">
         <v>75</v>
@@ -4008,7 +4003,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>42767</v>
       </c>
@@ -4034,7 +4029,7 @@
         <v>42783</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>51</v>
@@ -4056,7 +4051,7 @@
         <v>42788</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
         <v>54</v>
@@ -4076,7 +4071,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="49"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>42795</v>
       </c>
@@ -4102,7 +4097,7 @@
         <v>42795</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
         <v>51</v>
@@ -4124,7 +4119,7 @@
         <v>42804</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="20" t="s">
         <v>76</v>
@@ -4144,7 +4139,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="49"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>42826</v>
       </c>
@@ -4168,7 +4163,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>42856</v>
       </c>
@@ -4194,7 +4189,7 @@
         <v>42857</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>51</v>
@@ -4216,7 +4211,7 @@
         <v>42867</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="20" t="s">
         <v>51</v>
@@ -4238,7 +4233,7 @@
         <v>42871</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
         <v>51</v>
@@ -4260,7 +4255,7 @@
         <v>42864</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
         <v>78</v>
@@ -4280,7 +4275,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="49"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>42887</v>
       </c>
@@ -4306,7 +4301,7 @@
         <v>42894</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="20" t="s">
         <v>57</v>
@@ -4326,7 +4321,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
         <v>57</v>
@@ -4346,7 +4341,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>82</v>
@@ -4366,7 +4361,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="49"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>42917</v>
       </c>
@@ -4390,7 +4385,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>51</v>
@@ -4412,7 +4407,7 @@
         <v>42951</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>42948</v>
       </c>
@@ -4438,7 +4433,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="20" t="s">
         <v>85</v>
@@ -4458,7 +4453,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
         <v>51</v>
@@ -4480,7 +4475,7 @@
         <v>43003</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>42979</v>
       </c>
@@ -4504,7 +4499,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20" t="s">
         <v>51</v>
@@ -4526,7 +4521,7 @@
         <v>43017</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>43009</v>
       </c>
@@ -4552,7 +4547,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>51</v>
@@ -4574,7 +4569,7 @@
         <v>42993</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20" t="s">
         <v>54</v>
@@ -4594,7 +4589,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="49"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>43040</v>
       </c>
@@ -4620,7 +4615,7 @@
         <v>43054</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20" t="s">
         <v>51</v>
@@ -4642,7 +4637,7 @@
         <v>43056</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>43070</v>
       </c>
@@ -4662,7 +4657,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="48" t="s">
         <v>45</v>
       </c>
@@ -4680,7 +4675,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>43101</v>
       </c>
@@ -4700,7 +4695,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>43132</v>
       </c>
@@ -4726,7 +4721,7 @@
         <v>43121</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>43160</v>
       </c>
@@ -4752,7 +4747,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>88</v>
@@ -4774,7 +4769,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>43191</v>
       </c>
@@ -4794,7 +4789,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>43221</v>
       </c>
@@ -4820,7 +4815,7 @@
         <v>43227</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="15" t="s">
         <v>56</v>
@@ -4842,7 +4837,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="15" t="s">
         <v>57</v>
@@ -4862,7 +4857,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="15" t="s">
         <v>92</v>
@@ -4882,7 +4877,7 @@
       <c r="J76" s="12"/>
       <c r="K76" s="50"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>43252</v>
       </c>
@@ -4906,7 +4901,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>43282</v>
       </c>
@@ -4932,7 +4927,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20" t="s">
         <v>96</v>
@@ -4952,7 +4947,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>43313</v>
       </c>
@@ -4976,7 +4971,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>43344</v>
       </c>
@@ -5002,7 +4997,7 @@
         <v>43356</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
         <v>56</v>
@@ -5024,7 +5019,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>43374</v>
       </c>
@@ -5050,7 +5045,7 @@
         <v>43381</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
         <v>71</v>
@@ -5072,7 +5067,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
         <v>51</v>
@@ -5094,7 +5089,7 @@
         <v>43390</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>43405</v>
       </c>
@@ -5120,7 +5115,7 @@
         <v>43418</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
         <v>51</v>
@@ -5142,7 +5137,7 @@
         <v>43425</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>43435</v>
       </c>
@@ -5166,7 +5161,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="48" t="s">
         <v>46</v>
       </c>
@@ -5184,7 +5179,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>43466</v>
       </c>
@@ -5210,7 +5205,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20" t="s">
         <v>102</v>
@@ -5230,7 +5225,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>43497</v>
       </c>
@@ -5256,7 +5251,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>43525</v>
       </c>
@@ -5280,7 +5275,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>43556</v>
       </c>
@@ -5306,7 +5301,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20" t="s">
         <v>54</v>
@@ -5326,7 +5321,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>43586</v>
       </c>
@@ -5352,7 +5347,7 @@
         <v>43608</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20" t="s">
         <v>57</v>
@@ -5372,7 +5367,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20" t="s">
         <v>57</v>
@@ -5392,7 +5387,7 @@
         <v>43629</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20" t="s">
         <v>78</v>
@@ -5412,7 +5407,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="49"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>43617</v>
       </c>
@@ -5432,7 +5427,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>43647</v>
       </c>
@@ -5458,7 +5453,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20" t="s">
         <v>57</v>
@@ -5478,7 +5473,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20" t="s">
         <v>51</v>
@@ -5500,7 +5495,7 @@
         <v>43670</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20" t="s">
         <v>56</v>
@@ -5522,7 +5517,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <v>43678</v>
       </c>
@@ -5546,7 +5541,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>43709</v>
       </c>
@@ -5570,7 +5565,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>43739</v>
       </c>
@@ -5596,7 +5591,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20" t="s">
         <v>51</v>
@@ -5618,7 +5613,7 @@
         <v>43768</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20" t="s">
         <v>56</v>
@@ -5640,7 +5635,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20" t="s">
         <v>111</v>
@@ -5660,7 +5655,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>43770</v>
       </c>
@@ -5684,7 +5679,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <v>43800</v>
       </c>
@@ -5710,7 +5705,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20" t="s">
         <v>114</v>
@@ -5730,7 +5725,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="48" t="s">
         <v>47</v>
       </c>
@@ -5748,7 +5743,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>43831</v>
       </c>
@@ -5772,7 +5767,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>43862</v>
       </c>
@@ -5792,7 +5787,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>43891</v>
       </c>
@@ -5812,7 +5807,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <v>43922</v>
       </c>
@@ -5832,7 +5827,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>43952</v>
       </c>
@@ -5852,7 +5847,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <v>43983</v>
       </c>
@@ -5872,7 +5867,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <v>44013</v>
       </c>
@@ -5892,7 +5887,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <v>44044</v>
       </c>
@@ -5916,7 +5911,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <v>44075</v>
       </c>
@@ -5936,7 +5931,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <v>44105</v>
       </c>
@@ -5962,7 +5957,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <v>44136</v>
       </c>
@@ -5982,7 +5977,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <v>44166</v>
       </c>
@@ -6006,7 +6001,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="48" t="s">
         <v>48</v>
       </c>
@@ -6024,7 +6019,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <v>44197</v>
       </c>
@@ -6050,7 +6045,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <v>44228</v>
       </c>
@@ -6076,7 +6071,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <v>44256</v>
       </c>
@@ -6102,7 +6097,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <v>44287</v>
       </c>
@@ -6122,7 +6117,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <v>44317</v>
       </c>
@@ -6142,7 +6137,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <v>44348</v>
       </c>
@@ -6168,7 +6163,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <v>44378</v>
       </c>
@@ -6188,7 +6183,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
         <v>44409</v>
       </c>
@@ -6208,7 +6203,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
         <v>44440</v>
       </c>
@@ -6228,7 +6223,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <v>44470</v>
       </c>
@@ -6248,7 +6243,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
         <v>44501</v>
       </c>
@@ -6274,7 +6269,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <v>44531</v>
       </c>
@@ -6294,7 +6289,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="48" t="s">
         <v>49</v>
       </c>
@@ -6312,7 +6307,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
         <v>44562</v>
       </c>
@@ -6338,7 +6333,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <v>44593</v>
       </c>
@@ -6358,7 +6353,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
         <v>44621</v>
       </c>
@@ -6378,7 +6373,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <v>44652</v>
       </c>
@@ -6402,7 +6397,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
         <v>44682</v>
       </c>
@@ -6422,7 +6417,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
         <v>44713</v>
       </c>
@@ -6446,7 +6441,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
         <v>44743</v>
       </c>
@@ -6472,7 +6467,7 @@
         <v>44769</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40"/>
       <c r="B148" s="20" t="s">
         <v>57</v>
@@ -6492,7 +6487,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
         <v>44774</v>
       </c>
@@ -6512,7 +6507,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <v>44805</v>
       </c>
@@ -6538,7 +6533,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <v>44835</v>
       </c>
@@ -6564,7 +6559,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40"/>
       <c r="B152" s="20" t="s">
         <v>51</v>
@@ -6586,7 +6581,7 @@
         <v>44845</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40">
         <v>44866</v>
       </c>
@@ -6612,7 +6607,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <v>44896</v>
       </c>
@@ -6638,7 +6633,7 @@
         <v>44917</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="48" t="s">
         <v>50</v>
       </c>
@@ -6656,7 +6651,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40">
         <v>44927</v>
       </c>
@@ -6676,7 +6671,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40">
         <v>44958</v>
       </c>
@@ -6696,25 +6691,33 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
         <v>44986</v>
       </c>
-      <c r="B158" s="20"/>
-      <c r="C158" s="13"/>
+      <c r="B158" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C158" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D158" s="39"/>
       <c r="E158" s="9"/>
       <c r="F158" s="20"/>
-      <c r="G158" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H158" s="39"/>
+      <c r="G158" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H158" s="39">
+        <v>1</v>
+      </c>
       <c r="I158" s="9"/>
       <c r="J158" s="11"/>
-      <c r="K158" s="20"/>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K158" s="49">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40">
         <v>45017</v>
       </c>
@@ -6732,7 +6735,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40">
         <v>45047</v>
       </c>
@@ -6750,7 +6753,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
         <v>45078</v>
       </c>
@@ -6768,7 +6771,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40">
         <v>45108</v>
       </c>
@@ -6786,7 +6789,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40">
         <v>45139</v>
       </c>
@@ -6804,7 +6807,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40">
         <v>45170</v>
       </c>
@@ -6822,7 +6825,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40">
         <v>45200</v>
       </c>
@@ -6840,7 +6843,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40">
         <v>45231</v>
       </c>
@@ -6858,7 +6861,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40">
         <v>45261</v>
       </c>
@@ -6876,7 +6879,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40">
         <v>45292</v>
       </c>
@@ -6894,7 +6897,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40">
         <v>45323</v>
       </c>
@@ -6912,7 +6915,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40">
         <v>45352</v>
       </c>
@@ -6930,7 +6933,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40">
         <v>45383</v>
       </c>
@@ -6948,7 +6951,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40">
         <v>45413</v>
       </c>
@@ -6966,7 +6969,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40">
         <v>45444</v>
       </c>
@@ -6984,7 +6987,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40">
         <v>45474</v>
       </c>
@@ -7002,7 +7005,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40">
         <v>45505</v>
       </c>
@@ -7020,7 +7023,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40">
         <v>45536</v>
       </c>
@@ -7038,7 +7041,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40">
         <v>45566</v>
       </c>
@@ -7056,7 +7059,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
         <v>45597</v>
       </c>
@@ -7074,7 +7077,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40">
         <v>45627</v>
       </c>
@@ -7092,7 +7095,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
         <v>45658</v>
       </c>
@@ -7110,7 +7113,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40">
         <v>45689</v>
       </c>
@@ -7128,7 +7131,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40">
         <v>45717</v>
       </c>
@@ -7146,7 +7149,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
         <v>45748</v>
       </c>
@@ -7164,7 +7167,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40">
         <v>45778</v>
       </c>
@@ -7182,7 +7185,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40">
         <v>45809</v>
       </c>
@@ -7200,7 +7203,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
         <v>45839</v>
       </c>
@@ -7218,7 +7221,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40">
         <v>45870</v>
       </c>
@@ -7236,7 +7239,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40">
         <v>45901</v>
       </c>
@@ -7254,7 +7257,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40">
         <v>45931</v>
       </c>
@@ -7272,7 +7275,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
         <v>45962</v>
       </c>
@@ -7290,7 +7293,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40">
         <v>45992</v>
       </c>
@@ -7308,7 +7311,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40">
         <v>46023</v>
       </c>
@@ -7326,7 +7329,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40">
         <v>46054</v>
       </c>
@@ -7344,7 +7347,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40">
         <v>46082</v>
       </c>
@@ -7362,7 +7365,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
         <v>46113</v>
       </c>
@@ -7380,7 +7383,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
         <v>46143</v>
       </c>
@@ -7398,7 +7401,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40">
         <v>46174</v>
       </c>
@@ -7416,7 +7419,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40">
         <v>46204</v>
       </c>
@@ -7434,7 +7437,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40">
         <v>46235</v>
       </c>
@@ -7452,7 +7455,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
         <v>46266</v>
       </c>
@@ -7470,7 +7473,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
         <v>46296</v>
       </c>
@@ -7488,7 +7491,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40">
         <v>46327</v>
       </c>
@@ -7506,7 +7509,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40">
         <v>46357</v>
       </c>
@@ -7524,7 +7527,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40">
         <v>46388</v>
       </c>
@@ -7542,7 +7545,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40">
         <v>46419</v>
       </c>
@@ -7560,7 +7563,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40">
         <v>46447</v>
       </c>
@@ -7578,7 +7581,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40"/>
       <c r="B207" s="20"/>
       <c r="C207" s="13"/>
@@ -7594,7 +7597,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40"/>
       <c r="B208" s="20"/>
       <c r="C208" s="13"/>
@@ -7610,7 +7613,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40"/>
       <c r="B209" s="20"/>
       <c r="C209" s="13"/>
@@ -7626,7 +7629,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40"/>
       <c r="B210" s="20"/>
       <c r="C210" s="13"/>
@@ -7642,7 +7645,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40"/>
       <c r="B211" s="20"/>
       <c r="C211" s="13"/>
@@ -7658,7 +7661,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40"/>
       <c r="B212" s="20"/>
       <c r="C212" s="13"/>
@@ -7674,7 +7677,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40"/>
       <c r="B213" s="20"/>
       <c r="C213" s="13"/>
@@ -7690,7 +7693,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="41"/>
       <c r="B214" s="15"/>
       <c r="C214" s="42"/>
@@ -7721,10 +7724,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{3C67B38A-DE91-4BA1-85D0-F5C61D6395E6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{C9F25C0C-606E-415B-87B4-B098DE141EB5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7747,7 +7750,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB8F789-193C-43F9-8D48-B0DEE5C76ADA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -7755,21 +7758,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
@@ -7782,7 +7785,7 @@
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -7811,7 +7814,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>91.843000000000004</v>
       </c>
@@ -7841,17 +7844,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -7872,7 +7875,7 @@
       <c r="K6" s="62"/>
       <c r="L6" s="62"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -7899,7 +7902,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -7925,7 +7928,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -7951,7 +7954,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -7977,7 +7980,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -8003,7 +8006,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -8029,7 +8032,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -8055,7 +8058,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -8081,7 +8084,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -8101,7 +8104,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -8121,7 +8124,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -8141,7 +8144,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -8162,7 +8165,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -8183,7 +8186,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -8204,7 +8207,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -8225,7 +8228,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -8246,7 +8249,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -8267,7 +8270,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -8288,7 +8291,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -8309,7 +8312,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -8330,7 +8333,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -8351,7 +8354,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -8372,7 +8375,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -8393,7 +8396,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -8414,7 +8417,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -8435,7 +8438,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -8456,7 +8459,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -8477,7 +8480,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -8498,7 +8501,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -8519,7 +8522,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -8540,7 +8543,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -8561,7 +8564,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -8570,7 +8573,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -8579,7 +8582,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -8588,7 +8591,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -8597,7 +8600,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -8606,7 +8609,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -8615,7 +8618,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -8624,7 +8627,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -8633,7 +8636,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -8642,7 +8645,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -8651,7 +8654,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -8660,7 +8663,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -8669,7 +8672,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -8678,7 +8681,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -8687,7 +8690,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -8696,7 +8699,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -8705,7 +8708,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -8714,7 +8717,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -8723,7 +8726,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -8732,7 +8735,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -8741,7 +8744,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -8750,7 +8753,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -8759,7 +8762,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -8768,7 +8771,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -8777,7 +8780,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -8786,7 +8789,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -8795,7 +8798,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -8804,7 +8807,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -8813,7 +8816,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -8822,7 +8825,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/ANGCAYA, JOHN.xlsx
+++ b/REGULAR/ANGCAYA, JOHN.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="130">
   <si>
     <t>PERIOD</t>
   </si>
@@ -421,6 +421,9 @@
   </si>
   <si>
     <t>9/14,15</t>
+  </si>
+  <si>
+    <t>SPL(1-0-0)</t>
   </si>
 </sst>
 </file>
@@ -1289,7 +1292,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1332,7 +1335,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1396,7 +1399,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1456,7 +1459,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1522,7 +1525,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1585,7 +1588,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1683,7 +1686,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1742,7 +1745,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1807,7 +1810,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1850,7 +1853,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1925,7 +1928,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2111,7 +2114,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2177,7 +2180,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2235,7 +2238,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2301,7 +2304,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2357,7 +2360,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2432,7 +2435,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2475,7 +2478,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2541,7 +2544,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2597,7 +2600,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2695,7 +2698,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2758,7 +2761,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3207,7 +3210,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A147" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="B159" sqref="B159"/>
+      <selection pane="bottomLeft" activeCell="B161" sqref="B161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3370,7 +3373,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>129.20100000000002</v>
+        <v>131.70100000000002</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3380,7 +3383,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>128.05000000000001</v>
+        <v>130.55000000000001</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -6722,13 +6725,15 @@
         <v>45017</v>
       </c>
       <c r="B159" s="20"/>
-      <c r="C159" s="13"/>
+      <c r="C159" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D159" s="39"/>
       <c r="E159" s="9"/>
       <c r="F159" s="20"/>
-      <c r="G159" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G159" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H159" s="39"/>
       <c r="I159" s="9"/>
@@ -6740,13 +6745,15 @@
         <v>45047</v>
       </c>
       <c r="B160" s="20"/>
-      <c r="C160" s="13"/>
+      <c r="C160" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D160" s="39"/>
       <c r="E160" s="9"/>
       <c r="F160" s="20"/>
-      <c r="G160" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G160" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H160" s="39"/>
       <c r="I160" s="9"/>
@@ -6757,7 +6764,9 @@
       <c r="A161" s="40">
         <v>45078</v>
       </c>
-      <c r="B161" s="20"/>
+      <c r="B161" s="20" t="s">
+        <v>129</v>
+      </c>
       <c r="C161" s="13"/>
       <c r="D161" s="39"/>
       <c r="E161" s="9"/>
@@ -6769,7 +6778,9 @@
       <c r="H161" s="39"/>
       <c r="I161" s="9"/>
       <c r="J161" s="11"/>
-      <c r="K161" s="20"/>
+      <c r="K161" s="49">
+        <v>45090</v>
+      </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40">
